--- a/public/JobAdds.xlsx
+++ b/public/JobAdds.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Телефон</t>
   </si>
@@ -34,12 +34,12 @@
     <t>Ссылка</t>
   </si>
   <si>
+    <t>Дата добавления на сайт</t>
+  </si>
+  <si>
     <t>Название</t>
   </si>
   <si>
-    <t>Kek</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>12213</t>
+  </si>
+  <si>
+    <t>11/04/2020</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -430,9 +433,9 @@
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -452,10 +455,13 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -475,28 +481,8 @@
       <c r="G2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
+      <c r="H2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
